--- a/F2021-S2022.xlsx
+++ b/F2021-S2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Fall Semester 2021</t>
   </si>
@@ -125,16 +125,10 @@
     <t>DL</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
     <t>Adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -254,9 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -579,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,353 +583,367 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="6" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    <row r="5" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5">
+        <v>36651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6">
-        <v>36651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="javascript:void(0);"/>
-    <hyperlink ref="C3" r:id="rId2" display="javascript:void(0);"/>
-    <hyperlink ref="C4" r:id="rId3" display="javascript:void(0);"/>
-    <hyperlink ref="C5" r:id="rId4" display="javascript:void(0);"/>
-    <hyperlink ref="C6" r:id="rId5" display="javascript:void(0);"/>
-    <hyperlink ref="C7" r:id="rId6" display="javascript:void(0);"/>
-    <hyperlink ref="C8" r:id="rId7" display="javascript:void(0);"/>
-    <hyperlink ref="C9" r:id="rId8" display="javascript:void(0);"/>
-    <hyperlink ref="C10" r:id="rId9" display="javascript:void(0);"/>
-    <hyperlink ref="C11" r:id="rId10" display="javascript:void(0);"/>
-    <hyperlink ref="C12" r:id="rId11" display="javascript:void(0);"/>
+    <hyperlink ref="C1" r:id="rId1" display="javascript:void(0);"/>
+    <hyperlink ref="C2" r:id="rId2" display="javascript:void(0);"/>
+    <hyperlink ref="C3" r:id="rId3" display="javascript:void(0);"/>
+    <hyperlink ref="C4" r:id="rId4" display="javascript:void(0);"/>
+    <hyperlink ref="C5" r:id="rId5" display="javascript:void(0);"/>
+    <hyperlink ref="C6" r:id="rId6" display="javascript:void(0);"/>
+    <hyperlink ref="C7" r:id="rId7" display="javascript:void(0);"/>
+    <hyperlink ref="C8" r:id="rId8" display="javascript:void(0);"/>
+    <hyperlink ref="C9" r:id="rId9" display="javascript:void(0);"/>
+    <hyperlink ref="C10" r:id="rId10" display="javascript:void(0);"/>
+    <hyperlink ref="C11" r:id="rId11" display="javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId12"/>
